--- a/simulations/raw_inclusion_exclusion/Brouwer_2019 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Brouwer_2019 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>473</v>
       </c>
       <c r="C2">
-        <v>565</v>
+        <v>380</v>
       </c>
       <c r="D2">
-        <v>519</v>
+        <v>426.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>67</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>1186</v>
       </c>
       <c r="C5">
-        <v>1256</v>
+        <v>1099</v>
       </c>
       <c r="D5">
-        <v>1221</v>
+        <v>1142.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>177</v>
       </c>
       <c r="C6">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="D6">
-        <v>211.5</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>65</v>
       </c>
       <c r="C7">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>96.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>184</v>
       </c>
       <c r="C9">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>1438</v>
       </c>
       <c r="C10">
-        <v>1839</v>
+        <v>1452</v>
       </c>
       <c r="D10">
-        <v>1638.5</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>524</v>
       </c>
       <c r="C11">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="D11">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>153</v>
       </c>
       <c r="C12">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="D12">
-        <v>213.5</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>185</v>
       </c>
       <c r="C13">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="D13">
-        <v>206.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>267</v>
       </c>
       <c r="C14">
-        <v>463</v>
+        <v>169</v>
       </c>
       <c r="D14">
-        <v>365</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>93.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>68</v>
       </c>
       <c r="C17">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>134.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>211</v>
       </c>
       <c r="C18">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="D18">
-        <v>261.5</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>2803</v>
       </c>
       <c r="C19">
-        <v>3076</v>
+        <v>2690</v>
       </c>
       <c r="D19">
-        <v>2939.5</v>
+        <v>2746.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>3063</v>
       </c>
       <c r="C20">
-        <v>3001</v>
+        <v>2795</v>
       </c>
       <c r="D20">
-        <v>3032</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>1060</v>
       </c>
       <c r="C21">
-        <v>1079</v>
+        <v>991</v>
       </c>
       <c r="D21">
-        <v>1069.5</v>
+        <v>1025.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>86.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>227</v>
       </c>
       <c r="C24">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="D24">
-        <v>272.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>73</v>
       </c>
       <c r="C25">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>136</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>216</v>
       </c>
       <c r="C26">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="D26">
-        <v>264.5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>149</v>
       </c>
       <c r="C27">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="D27">
-        <v>208</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>138.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>639</v>
       </c>
       <c r="C29">
-        <v>703</v>
+        <v>626</v>
       </c>
       <c r="D29">
-        <v>671</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>205</v>
       </c>
       <c r="C30">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="D30">
-        <v>254.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="D31">
-        <v>256.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>56</v>
       </c>
       <c r="C32">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="D32">
-        <v>114.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>608</v>
       </c>
       <c r="C35">
-        <v>570</v>
+        <v>652</v>
       </c>
       <c r="D35">
-        <v>589</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>571</v>
       </c>
       <c r="C36">
-        <v>895</v>
+        <v>643</v>
       </c>
       <c r="D36">
-        <v>733</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>109</v>
       </c>
       <c r="C38">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>202.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>340</v>
       </c>
       <c r="C39">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="D39">
-        <v>394</v>
+        <v>363.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>1450</v>
       </c>
       <c r="C40">
-        <v>1579</v>
+        <v>1422</v>
       </c>
       <c r="D40">
-        <v>1514.5</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>486</v>
       </c>
       <c r="C41">
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="D41">
-        <v>547</v>
+        <v>449.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>27</v>
       </c>
       <c r="C42">
-        <v>442</v>
+        <v>269</v>
       </c>
       <c r="D42">
-        <v>234.5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -985,10 +985,10 @@
         <v>27074</v>
       </c>
       <c r="C43">
-        <v>564</v>
+        <v>344</v>
       </c>
       <c r="D43">
-        <v>564</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1013,10 +1013,10 @@
         <v>1572</v>
       </c>
       <c r="C45">
-        <v>1696</v>
+        <v>2050</v>
       </c>
       <c r="D45">
-        <v>1634</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>142</v>
       </c>
       <c r="C46">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="D46">
-        <v>215</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1041,10 +1041,10 @@
         <v>228</v>
       </c>
       <c r="C47">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="D47">
-        <v>267.5</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1055,10 +1055,10 @@
         <v>89</v>
       </c>
       <c r="C48">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>154.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1069,10 +1069,10 @@
         <v>202</v>
       </c>
       <c r="C49">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="D49">
-        <v>221</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1083,10 +1083,10 @@
         <v>395</v>
       </c>
       <c r="C50">
-        <v>510</v>
+        <v>418</v>
       </c>
       <c r="D50">
-        <v>452.5</v>
+        <v>406.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1097,10 +1097,10 @@
         <v>215</v>
       </c>
       <c r="C51">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="D51">
-        <v>262.5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1111,10 +1111,10 @@
         <v>34</v>
       </c>
       <c r="C52">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>121.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1125,10 +1125,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>170</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1139,10 +1139,10 @@
         <v>110</v>
       </c>
       <c r="C54">
-        <v>337</v>
+        <v>104</v>
       </c>
       <c r="D54">
-        <v>223.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1153,10 +1153,10 @@
         <v>226</v>
       </c>
       <c r="C55">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="D55">
-        <v>263</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1167,10 +1167,10 @@
         <v>38</v>
       </c>
       <c r="C56">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>244</v>
       </c>
       <c r="C57">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="D57">
-        <v>285.5</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1195,10 +1195,10 @@
         <v>79</v>
       </c>
       <c r="C58">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>136.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1209,10 +1209,10 @@
         <v>94</v>
       </c>
       <c r="C59">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="D59">
-        <v>149</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1223,10 +1223,10 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D60">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1237,10 +1237,10 @@
         <v>23</v>
       </c>
       <c r="C61">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>152</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>89</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,10 +1265,10 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="D63">
-        <v>125</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,7 +1279,7 @@
         <v>351.9016393442623</v>
       </c>
       <c r="C64">
-        <v>485.3709677419355</v>
+        <v>344.3225806451613</v>
       </c>
     </row>
   </sheetData>
